--- a/CPC_入院時検査.xlsx
+++ b/CPC_入院時検査.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="1260" windowWidth="25600" windowHeight="15460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="109">
   <si>
     <t>尿検査</t>
     <rPh sb="0" eb="3">
@@ -154,47 +154,10 @@
     <t>mg/dl</t>
   </si>
   <si>
-    <t>RA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IU/l</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ASO</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>IgA</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>IgG</t>
   </si>
   <si>
     <t>IgM</t>
-  </si>
-  <si>
-    <t>C3c</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>C4</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>血清補体価</t>
-    <rPh sb="0" eb="2">
-      <t>ケッセイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ホタイカ</t>
-    </rPh>
-    <rPh sb="4" eb="5">
-      <t>カチ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ANA</t>
@@ -404,6 +367,48 @@
   <si>
     <t>ng/dl</t>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>IU/mL</t>
+  </si>
+  <si>
+    <t>ASO</t>
+  </si>
+  <si>
+    <t>IgA</t>
+  </si>
+  <si>
+    <t>mg/dL</t>
+  </si>
+  <si>
+    <t>IgE</t>
+  </si>
+  <si>
+    <t>C3c</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>血清補体価</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    ﾛｳ様円柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    5-19/100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    脂肪円柱</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    1-4/100L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    上皮円柱</t>
   </si>
 </sst>
 </file>
@@ -476,7 +481,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -522,14 +527,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="69">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="5" builtinId="8" hidden="1"/>
@@ -552,6 +584,18 @@
     <cellStyle name="ハイパーリンク" xfId="39" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="ハイパーリンク" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="ハイパーリンク" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="4" builtinId="9" hidden="1"/>
@@ -575,6 +619,18 @@
     <cellStyle name="表示済みのハイパーリンク" xfId="40" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="表示済みのハイパーリンク" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="表示済みのハイパーリンク" xfId="68" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -905,8 +961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:C33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -915,6 +971,8 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
@@ -923,6 +981,12 @@
       <c r="B2">
         <v>5.5</v>
       </c>
+      <c r="D2" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>105</v>
+      </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
@@ -931,6 +995,12 @@
       <c r="B3">
         <v>1.0169999999999999</v>
       </c>
+      <c r="D3" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
@@ -939,13 +1009,19 @@
       <c r="B4" t="s">
         <v>4</v>
       </c>
+      <c r="D4" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1077,87 +1153,96 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>94</v>
+        <v>87</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="4">
+        <v>8</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B26">
         <v>2.15</v>
       </c>
       <c r="C26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="E26" s="4">
+        <v>177</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>96</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E26">
-        <v>12</v>
-      </c>
-      <c r="F26" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B27">
         <v>2.6</v>
       </c>
       <c r="C27" t="s">
-        <v>100</v>
-      </c>
-      <c r="D27" t="s">
-        <v>34</v>
-      </c>
-      <c r="E27">
-        <v>7</v>
-      </c>
-      <c r="F27" t="s">
-        <v>33</v>
+        <v>93</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E27" s="4">
+        <v>268</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B28">
         <v>1.19</v>
       </c>
       <c r="C28" t="s">
-        <v>101</v>
-      </c>
-      <c r="D28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E28">
-        <v>233</v>
-      </c>
-      <c r="F28" t="s">
-        <v>9</v>
+        <v>94</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1102</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B29">
         <v>2662</v>
       </c>
       <c r="C29" t="s">
-        <v>100</v>
-      </c>
-      <c r="D29" t="s">
-        <v>36</v>
-      </c>
-      <c r="E29" s="2">
-        <v>1787</v>
-      </c>
-      <c r="F29" t="s">
-        <v>31</v>
+        <v>93</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" s="4">
+        <v>43</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1170,28 +1255,28 @@
       <c r="C30" t="s">
         <v>31</v>
       </c>
-      <c r="D30" t="s">
-        <v>37</v>
-      </c>
-      <c r="E30">
-        <v>144</v>
-      </c>
-      <c r="F30" t="s">
-        <v>31</v>
+      <c r="D30" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="E30" s="4">
+        <v>11</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="D31" t="s">
-        <v>38</v>
-      </c>
-      <c r="E31">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>9</v>
+      <c r="D31" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" s="4">
+        <v>79</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1204,31 +1289,31 @@
       <c r="C32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32">
-        <v>22</v>
-      </c>
-      <c r="F32" t="s">
-        <v>9</v>
+      <c r="D32" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="4">
+        <v>36</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B33">
         <v>36.700000000000003</v>
       </c>
       <c r="C33" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="2">
-        <v>52.5</v>
+        <v>86</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="4">
+        <v>38.799999999999997</v>
       </c>
       <c r="F33" t="s">
         <v>9</v>
@@ -1236,7 +1321,7 @@
     </row>
     <row r="34" spans="1:6">
       <c r="D34" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="E34" t="s">
         <v>4</v>
@@ -1244,7 +1329,7 @@
     </row>
     <row r="35" spans="1:6">
       <c r="D35" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E35" t="s">
         <v>4</v>
@@ -1252,7 +1337,7 @@
     </row>
     <row r="36" spans="1:6">
       <c r="D36" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="E36" t="s">
         <v>4</v>
@@ -1260,7 +1345,7 @@
     </row>
     <row r="37" spans="1:6">
       <c r="D37" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E37" t="s">
         <v>4</v>
@@ -1268,7 +1353,7 @@
     </row>
     <row r="38" spans="1:6">
       <c r="D38" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E38" t="s">
         <v>4</v>
@@ -1276,7 +1361,7 @@
     </row>
     <row r="39" spans="1:6">
       <c r="D39" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="E39">
         <v>4.3</v>
@@ -1284,45 +1369,45 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B44">
         <v>147.19999999999999</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="B45">
         <v>3.5</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="B46">
         <v>103.9</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B47">
         <v>8.6</v>
@@ -1333,7 +1418,7 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B48">
         <v>4.5999999999999996</v>
@@ -1344,40 +1429,40 @@
     </row>
     <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="B49">
         <v>85</v>
       </c>
       <c r="C49" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="B50">
         <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="B51">
         <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B52">
         <v>0.4</v>
@@ -1388,40 +1473,40 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="B53">
         <v>43</v>
       </c>
       <c r="C53" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="B54">
         <v>261</v>
       </c>
       <c r="C54" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="B55">
         <v>2.8</v>
       </c>
       <c r="C55" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B56">
         <v>68.5</v>
@@ -1432,7 +1517,7 @@
     </row>
     <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>4.79</v>
@@ -1443,7 +1528,7 @@
     </row>
     <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="B58">
         <v>7.3</v>
@@ -1454,31 +1539,31 @@
     </row>
     <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B59" s="3">
         <v>37</v>
       </c>
       <c r="C59" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="D61" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="D62" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="D63" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="E63">
         <v>5.7</v>
@@ -1486,7 +1571,7 @@
     </row>
     <row r="64" spans="1:5">
       <c r="D64" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="E64">
         <v>0.65</v>
@@ -1494,7 +1579,7 @@
     </row>
     <row r="65" spans="4:6">
       <c r="D65" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="E65">
         <v>40</v>
@@ -1502,34 +1587,34 @@
     </row>
     <row r="66" spans="4:6">
       <c r="D66" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="E66" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="4:6">
       <c r="D67" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="E67" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
     </row>
     <row r="68" spans="4:6">
       <c r="D68" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E68">
         <v>0.1</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="4:6">
       <c r="D69" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="E69">
         <v>31</v>
@@ -1540,75 +1625,75 @@
     </row>
     <row r="70" spans="4:6">
       <c r="D70" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="E70">
         <v>0.1</v>
       </c>
       <c r="F70" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="71" spans="4:6">
       <c r="D71" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E71" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="72" spans="4:6">
       <c r="D72" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E72">
         <v>0.2</v>
       </c>
       <c r="F72" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="73" spans="4:6">
       <c r="D73" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E73" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="74" spans="4:6">
       <c r="D74" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E74" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="75" spans="4:6">
       <c r="D75" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="E75" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="76" spans="4:6">
       <c r="D76" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="E76">
         <v>0.1</v>
       </c>
       <c r="F76" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="77" spans="4:6">
       <c r="D77" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E77" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
